--- a/Customer Template.xlsx
+++ b/Customer Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amral\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amral\Documents\GitHub\import-wizard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4532255-77BA-4840-AFD5-0A93C43DA839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3887635E-2F70-423E-AA93-E9C238A74274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{50A5F892-CFFB-4944-90EB-AE1D9BB65714}"/>
   </bookViews>
@@ -36,112 +36,742 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
-  <si>
-    <t>ExternalID</t>
-  </si>
-  <si>
-    <t>Customer ID</t>
-  </si>
-  <si>
-    <t>Individual</t>
-  </si>
-  <si>
-    <t>Company Name</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Subsidiary</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Sales Rep</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>Default Receivables Account</t>
-  </si>
-  <si>
-    <t>Primary Currency</t>
-  </si>
-  <si>
-    <t>Terms</t>
-  </si>
-  <si>
-    <t>Price Level</t>
-  </si>
-  <si>
-    <t>Credit Limit</t>
-  </si>
-  <si>
-    <t>Tax Item</t>
-  </si>
-  <si>
-    <t>Tax Reg. Number</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Addressee</t>
-  </si>
-  <si>
-    <t>Address 1</t>
-  </si>
-  <si>
-    <t>Address 2</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Province/State</t>
-  </si>
-  <si>
-    <t>Postal Code/Zip</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Default Billing</t>
-  </si>
-  <si>
-    <t>Default Shipping</t>
-  </si>
-  <si>
-    <t>Attention</t>
-  </si>
-  <si>
-    <t>Shipping Carrier</t>
-  </si>
-  <si>
-    <t>Shipping Method</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="243">
+  <si>
+    <t>externalId</t>
+  </si>
+  <si>
+    <t>entityId</t>
+  </si>
+  <si>
+    <t>isPerson</t>
+  </si>
+  <si>
+    <t>companyName</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>subsidiary</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>salesRep</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>isInactive</t>
+  </si>
+  <si>
+    <t>accountNumber</t>
+  </si>
+  <si>
+    <t>receivablesAccount</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>terms</t>
+  </si>
+  <si>
+    <t>priceLevel</t>
+  </si>
+  <si>
+    <t>creditLimit</t>
+  </si>
+  <si>
+    <t>taxItem</t>
+  </si>
+  <si>
+    <t>vatregnumber</t>
+  </si>
+  <si>
+    <t>Address1_AddressName</t>
+  </si>
+  <si>
+    <t>Address1_Addressee</t>
+  </si>
+  <si>
+    <t>Address1_phone</t>
+  </si>
+  <si>
+    <t>Address1_line1</t>
+  </si>
+  <si>
+    <t>Address1_line2</t>
+  </si>
+  <si>
+    <t>Address1_city</t>
+  </si>
+  <si>
+    <t>Address1_state</t>
+  </si>
+  <si>
+    <t>Address1_zipCode</t>
+  </si>
+  <si>
+    <t>Address1_country</t>
+  </si>
+  <si>
+    <t>Address1_defaultBilling</t>
+  </si>
+  <si>
+    <t>Address1_defaultShipping</t>
+  </si>
+  <si>
+    <t>Address2_AddressName</t>
+  </si>
+  <si>
+    <t>Address2_attention</t>
+  </si>
+  <si>
+    <t>Address2_Addressee</t>
+  </si>
+  <si>
+    <t>Address2_phone</t>
+  </si>
+  <si>
+    <t>Address2_line1</t>
+  </si>
+  <si>
+    <t>Address2_line2</t>
+  </si>
+  <si>
+    <t>Address2_city</t>
+  </si>
+  <si>
+    <t>Address2_state</t>
+  </si>
+  <si>
+    <t>Address2_zipCode</t>
+  </si>
+  <si>
+    <t>Address2_country</t>
+  </si>
+  <si>
+    <t>Address2_defaultBilling</t>
+  </si>
+  <si>
+    <t>Address2_defaultShipping</t>
+  </si>
+  <si>
+    <t>shippingcarrier</t>
+  </si>
+  <si>
+    <t>shippingitem</t>
+  </si>
+  <si>
+    <t>EX001</t>
+  </si>
+  <si>
+    <t>ENT001</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Global Parent</t>
+  </si>
+  <si>
+    <t>john.doe@example.com</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Net 30</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>General Tax</t>
+  </si>
+  <si>
+    <t>VAT001</t>
+  </si>
+  <si>
+    <t>Main Office</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>123 Main St</t>
+  </si>
+  <si>
+    <t>Suite 200</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Warehouse 1</t>
+  </si>
+  <si>
+    <t>456 Elm St</t>
+  </si>
+  <si>
+    <t>Apt 3B</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>FedEx</t>
+  </si>
+  <si>
+    <t>Standard Shipping</t>
+  </si>
+  <si>
+    <t>EX002</t>
+  </si>
+  <si>
+    <t>ENT002</t>
+  </si>
+  <si>
+    <t>Acme Corporation</t>
+  </si>
+  <si>
+    <t>North America : Acme</t>
+  </si>
+  <si>
+    <t>info@acme.com</t>
+  </si>
+  <si>
+    <t>Richard Roe</t>
+  </si>
+  <si>
+    <t>Wholesale</t>
+  </si>
+  <si>
+    <t>Net 45</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>VAT002</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>Acme Corp</t>
+  </si>
+  <si>
+    <t>789 Broadway</t>
+  </si>
+  <si>
+    <t>Building A</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Shipping Hub</t>
+  </si>
+  <si>
+    <t>Logistics Dept</t>
+  </si>
+  <si>
+    <t>101 Maple Dr</t>
+  </si>
+  <si>
+    <t>Floor 5</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>Expedited</t>
+  </si>
+  <si>
+    <t>EX003</t>
+  </si>
+  <si>
+    <t>ENT003</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>alice.johnson@example.eu</t>
+  </si>
+  <si>
+    <t>Michael Brown</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Net 15</t>
+  </si>
+  <si>
+    <t>VAT003</t>
+  </si>
+  <si>
+    <t>Home Office</t>
+  </si>
+  <si>
+    <t>Alice Johnson</t>
+  </si>
+  <si>
+    <t>45 Queen St</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>SW1A 1AA</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>EX004</t>
+  </si>
+  <si>
+    <t>ENT004</t>
+  </si>
+  <si>
+    <t>Beta Solutions Ltd</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>contact@betasolutions.asia</t>
+  </si>
+  <si>
+    <t>Sarah Green</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>Net 60</t>
+  </si>
+  <si>
+    <t>VAT004</t>
+  </si>
+  <si>
+    <t>Corporate HQ</t>
+  </si>
+  <si>
+    <t>98 Tech Park Rd</t>
+  </si>
+  <si>
+    <t>Block B</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Remote Office</t>
+  </si>
+  <si>
+    <t>IT Support</t>
+  </si>
+  <si>
+    <t>22 Tech Blvd</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>BlueDart</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>EX005</t>
+  </si>
+  <si>
+    <t>ENT005</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Ramirez</t>
+  </si>
+  <si>
+    <t>Latin America</t>
+  </si>
+  <si>
+    <t>carlos.ramirez@example.mx</t>
+  </si>
+  <si>
+    <t>Maria Torres</t>
+  </si>
+  <si>
+    <t>MXN</t>
+  </si>
+  <si>
+    <t>VAT005</t>
+  </si>
+  <si>
+    <t>Regional Office</t>
+  </si>
+  <si>
+    <t>Carlos Ramirez</t>
+  </si>
+  <si>
+    <t>123 Avenida Central</t>
+  </si>
+  <si>
+    <t>Piso 2</t>
+  </si>
+  <si>
+    <t>Ciudad de México</t>
+  </si>
+  <si>
+    <t>CDMX</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>EX006</t>
+  </si>
+  <si>
+    <t>ENT006</t>
+  </si>
+  <si>
+    <t>Delta Enterprises</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>info@deltaafrica.com</t>
+  </si>
+  <si>
+    <t>Ahmed Ali</t>
+  </si>
+  <si>
+    <t>ZAR</t>
+  </si>
+  <si>
+    <t>VAT006</t>
+  </si>
+  <si>
+    <t>456 Market St</t>
+  </si>
+  <si>
+    <t>Suite 10</t>
+  </si>
+  <si>
+    <t>Johannesburg</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Local Depot</t>
+  </si>
+  <si>
+    <t>Warehouse Team</t>
+  </si>
+  <si>
+    <t>Depot Rd</t>
+  </si>
+  <si>
+    <t>Cape Town</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>Aramex</t>
+  </si>
+  <si>
+    <t>EX007</t>
+  </si>
+  <si>
+    <t>ENT007</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>emily.wang@example.cn</t>
+  </si>
+  <si>
+    <t>Leo Zhang</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>VAT007</t>
+  </si>
+  <si>
+    <t>Emily Wang</t>
+  </si>
+  <si>
+    <t>88 Business Rd</t>
+  </si>
+  <si>
+    <t>Building C</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>EMS</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>EX008</t>
+  </si>
+  <si>
+    <t>ENT008</t>
+  </si>
+  <si>
+    <t>Gamma Logistics LLC</t>
+  </si>
+  <si>
+    <t>Middle East</t>
+  </si>
+  <si>
+    <t>support@gammalogistics.ae</t>
+  </si>
+  <si>
+    <t>Omar Hassan</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>VAT008</t>
+  </si>
+  <si>
+    <t>Logistics Center</t>
+  </si>
+  <si>
+    <t>12 Logistics Blvd</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>HQ Shipping</t>
+  </si>
+  <si>
+    <t>Abu Dhabi</t>
+  </si>
+  <si>
+    <t>EX009</t>
+  </si>
+  <si>
+    <t>ENT009</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>sarah.lee@example.au</t>
+  </si>
+  <si>
+    <t>Jason Brown</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>VAT009</t>
+  </si>
+  <si>
+    <t>Sarah Lee</t>
+  </si>
+  <si>
+    <t>77 Pacific Hwy</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>NSW</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Warehouse 2</t>
+  </si>
+  <si>
+    <t>Australia Post</t>
+  </si>
+  <si>
+    <t>EX010</t>
+  </si>
+  <si>
+    <t>ENT010</t>
+  </si>
+  <si>
+    <t>Epsilon Manufacturing</t>
+  </si>
+  <si>
+    <t>Europe : Epsilon Global</t>
+  </si>
+  <si>
+    <t>contact@epsilon.eu</t>
+  </si>
+  <si>
+    <t>Erika Schmidt</t>
+  </si>
+  <si>
+    <t>VAT010</t>
+  </si>
+  <si>
+    <t>123 Industrial Rd</t>
+  </si>
+  <si>
+    <t>Block A</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Logistics Team</t>
+  </si>
+  <si>
+    <t>Industrial Area</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>+12345678901</t>
+  </si>
+  <si>
+    <t>+12125551234</t>
+  </si>
+  <si>
+    <t>+441234567890</t>
+  </si>
+  <si>
+    <t>+918765432100</t>
+  </si>
+  <si>
+    <t>+5215555555555</t>
+  </si>
+  <si>
+    <t>+27123456789</t>
+  </si>
+  <si>
+    <t>+8613800000000</t>
+  </si>
+  <si>
+    <t>+97144567890</t>
+  </si>
+  <si>
+    <t>+61234567890</t>
+  </si>
+  <si>
+    <t>+4915123456789</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,36 +784,25 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -198,33 +817,31 @@
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -571,40 +1188,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7E3F8D-C716-4391-8E81-64C1D3DF9D3A}">
-  <dimension ref="A1:AS1"/>
+  <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AS1"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="32" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="42" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:45" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -622,7 +1269,7 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -637,83 +1284,1303 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="X1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1001</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="2">
+        <v>12345678901</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>10001</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>90001</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1002</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" s="2">
+        <v>15000</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="W3" s="2">
+        <v>12125551234</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>60601</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2">
+        <v>12126667777</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>75201</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1003</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="2">
+        <v>3000</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="W4" s="2">
+        <v>441234567890</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1004</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" s="2">
+        <v>25000</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="W5" s="2">
+        <v>918765432100</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>560001</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2">
+        <v>918712345678</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>600001</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1005</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" s="2">
+        <v>4000</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="W6" s="2">
+        <v>5215555555555</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1006</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" s="2">
+        <v>20000</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="W7" s="2">
+        <v>27123456789</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>2001</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2">
+        <v>278123456789</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>8001</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS7" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1007</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" s="2">
+        <v>6000</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="W8" s="2">
+        <v>8613800000000</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2">
+        <v>200001</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS8" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1008</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" s="2">
+        <v>30000</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="W9" s="2">
+        <v>97144567890</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2">
+        <v>97145567777</v>
+      </c>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS9" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1009</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="2">
+        <v>7000</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="W10" s="2">
+        <v>61234567890</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AS10" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1010</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" s="2">
+        <v>50000</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="W11" s="2">
+        <v>4915123456789</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2">
+        <v>10115</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2">
+        <v>4915111111111</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2">
+        <v>20095</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS11" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Customer Template.xlsx
+++ b/Customer Template.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amral\Documents\GitHub\import-wizard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F69C651-840E-4C80-955A-C2783284DEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428535CA-5991-47CF-AA9B-7B2E1E0F4855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Field Restrictions" sheetId="2" r:id="rId1"/>
-    <sheet name="CustomerTemplate" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -3109,15 +3109,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="e293ce31-67a4-4125-8330-80282ab27cbe">
@@ -3131,6 +3122,15 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3342,20 +3342,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2A974D3-5B8C-4DF9-A713-631781581404}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E301C68C-2FE0-4D4B-AAA7-00CEC48CAA77}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="e293ce31-67a4-4125-8330-80282ab27cbe"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2A974D3-5B8C-4DF9-A713-631781581404}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Customer Template.xlsx
+++ b/Customer Template.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amral\Documents\GitHub\import-wizard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428535CA-5991-47CF-AA9B-7B2E1E0F4855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E801EEEE-AFE3-461A-BD54-6C4909123BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Field Restrictions" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Field Restrictions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1830,481 +1830,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.21875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="4">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="4">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS15"/>
   <sheetViews>
@@ -3108,6 +2633,481 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.21875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3125,15 +3125,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100247A4CC1AF2026409A6E39D9D04101A0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a6a3e6a90eb8c9d66fa2b251aa49209c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e293ce31-67a4-4125-8330-80282ab27cbe" xmlns:ns3="6d12afd6-76fb-4d3e-b207-d43aeb8216c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d52267e3328c36d1df1f47a997ada39b" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3341,6 +3332,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E301C68C-2FE0-4D4B-AAA7-00CEC48CAA77}">
   <ds:schemaRefs>
@@ -3353,14 +3353,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2A974D3-5B8C-4DF9-A713-631781581404}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{895C8D1E-4ACD-4A02-8297-522B50C43017}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3378,4 +3370,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2A974D3-5B8C-4DF9-A713-631781581404}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>